--- a/data_cleaning/mileage.xlsx
+++ b/data_cleaning/mileage.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5160" windowWidth="28800" windowHeight="11240" tabRatio="500"/>
+    <workbookView xWindow="11140" yWindow="460" windowWidth="17660" windowHeight="13900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+  <si>
+    <t>Week</t>
+  </si>
   <si>
     <t>Week 1</t>
   </si>
@@ -57,6 +61,9 @@
   </si>
   <si>
     <t>Sun</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -373,38 +380,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -430,7 +440,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -456,7 +466,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -481,6 +491,334 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>$C$1</f>
+        <v>Week 1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A8" si="0">$C$1</f>
+        <v>Week 1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Week 1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Week 1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Week 1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Week 1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>Week 1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>D$1</f>
+        <v>Week 2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>D$1</f>
+        <v>Week 2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>D$1</f>
+        <v>Week 2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>D$1</f>
+        <v>Week 2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>D$1</f>
+        <v>Week 2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>D$1</f>
+        <v>Week 2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>D$1</f>
+        <v>Week 2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>E$1</f>
+        <v>Week 3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>E$1</f>
+        <v>Week 3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>E$1</f>
+        <v>Week 3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>E$1</f>
+        <v>Week 3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>E$1</f>
+        <v>Week 3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>E$1</f>
+        <v>Week 3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>E$1</f>
+        <v>Week 3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_cleaning/mileage.xlsx
+++ b/data_cleaning/mileage.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="460" windowWidth="17660" windowHeight="13900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11140" yWindow="460" windowWidth="17660" windowHeight="13900" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="mileage.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Week</t>
   </si>
@@ -61,9 +60,6 @@
   </si>
   <si>
     <t>Sun</t>
-  </si>
-  <si>
-    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -380,7 +376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
@@ -494,331 +490,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>$C$1</f>
-        <v>Week 1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A8" si="0">$C$1</f>
-        <v>Week 1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Week 1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Week 1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Week 1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>Week 1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>Week 1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f>D$1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
-        <f>D$1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f>D$1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
-        <f>D$1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f>D$1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f>D$1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f>D$1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
-        <f>E$1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
-        <f>E$1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
-        <f>E$1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="str">
-        <f>E$1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
-        <f>E$1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="str">
-        <f>E$1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="str">
-        <f>E$1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>